--- a/test/df_grouped_metric_with_rating.xlsx
+++ b/test/df_grouped_metric_with_rating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>RATING</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>MODEL_SHORT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +499,11 @@
       <c r="G2" t="n">
         <v>100</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Model 1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -519,6 +529,11 @@
       <c r="G3" t="n">
         <v>81.68977534707305</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Model 2</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,6 +559,11 @@
       <c r="G4" t="n">
         <v>80.15524324460327</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Model 3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -569,6 +589,11 @@
       <c r="G5" t="n">
         <v>68.75958310518587</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Model 4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -593,6 +618,11 @@
       </c>
       <c r="G6" t="n">
         <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Model 5</t>
+        </is>
       </c>
     </row>
   </sheetData>
